--- a/src/sheet.xlsx
+++ b/src/sheet.xlsx
@@ -20,27 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">imprivata@gmail.com</t>
+    <t xml:space="preserve">imprivata1234@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">imprivata123@gmail.com</t>
+    <t xml:space="preserve">test_12@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">imprivata_123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imprivata.123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imprivata-123@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imprivata@123.123.123.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImMPRIVATA@gmail.com</t>
+    <t xml:space="preserve">test-123@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -82,6 +70,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
@@ -159,10 +148,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -181,37 +170,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="imprivata@gmail.com"/>
-    <hyperlink ref="A2" r:id="rId2" display="imprivata123@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="imprivata.123@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="imprivata-123@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" display="imprivata1234@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="test_12@yopmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="test-123@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
